--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clemente\Desktop\sensors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF358ED0-8083-494A-800A-590879B31823}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0242D2-25D6-439E-A928-65B1CE902F7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A3141BC4-0F40-4285-8D7F-57D1327E0480}"/>
+    <workbookView xWindow="4755" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{A3141BC4-0F40-4285-8D7F-57D1327E0480}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Descripción</t>
   </si>
@@ -100,19 +100,64 @@
   </si>
   <si>
     <t>Número días estimado</t>
+  </si>
+  <si>
+    <t>Puesto</t>
+  </si>
+  <si>
+    <t>Salario estimado (anual bruto, €)</t>
+  </si>
+  <si>
+    <t>Salario por hora</t>
+  </si>
+  <si>
+    <t>(1755 horas anuales [])</t>
+  </si>
+  <si>
+    <t>Salario Bruto total</t>
+  </si>
+  <si>
+    <t>Seguridad Social</t>
+  </si>
+  <si>
+    <t>(6.2 %)</t>
+  </si>
+  <si>
+    <t>Otras deducciones (estimación 4 %)</t>
+  </si>
+  <si>
+    <t>Salario neto total</t>
+  </si>
+  <si>
+    <t>Jefe de Proyecto</t>
+  </si>
+  <si>
+    <t>Programador</t>
+  </si>
+  <si>
+    <t>Encargado de pruebas</t>
+  </si>
+  <si>
+    <t>Documentador</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,10 +168,67 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -135,10 +237,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1573,13 +1702,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C066D9B-284C-4B0C-B62A-F2D60AC48E2F}">
-  <dimension ref="B3:H24"/>
+  <dimension ref="B3:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1946,11 +2079,11 @@
         <v>91</v>
       </c>
       <c r="G19">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>136.5</v>
+        <v>227.5</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -1963,10 +2096,195 @@
       </c>
       <c r="H24">
         <f>SUM(H4:H19)</f>
-        <v>313</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="3:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="6">
+        <v>33762</v>
+      </c>
+      <c r="E48" s="4">
+        <f>D48/1755</f>
+        <v>19.237606837606837</v>
+      </c>
+      <c r="F48" s="4">
+        <v>76</v>
+      </c>
+      <c r="G48" s="4">
+        <f>E48*F48</f>
+        <v>1462.0581196581195</v>
+      </c>
+      <c r="H48" s="4">
+        <f>G48*0.062</f>
+        <v>90.647603418803413</v>
+      </c>
+      <c r="I48" s="4">
+        <f>G48*0.04</f>
+        <v>58.482324786324781</v>
+      </c>
+      <c r="J48" s="4">
+        <f>G48-H48-I48</f>
+        <v>1312.9281914529913</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="6">
+        <v>16189</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" ref="E49:E51" si="2">D49/1755</f>
+        <v>9.2245014245014243</v>
+      </c>
+      <c r="F49" s="4">
+        <v>80.5</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" ref="G49:G51" si="3">E49*F49</f>
+        <v>742.57236467236464</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" ref="H49:H52" si="4">G49*0.062</f>
+        <v>46.039486609686605</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" ref="I49:I52" si="5">G49*0.04</f>
+        <v>29.702894586894587</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" ref="J49:J51" si="6">G49-H49-I49</f>
+        <v>666.82998347578348</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="6">
+        <v>25304</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="2"/>
+        <v>14.418233618233618</v>
+      </c>
+      <c r="F50" s="4">
+        <v>20</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="3"/>
+        <v>288.36467236467234</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="4"/>
+        <v>17.878609686609686</v>
+      </c>
+      <c r="I50" s="4">
+        <f t="shared" si="5"/>
+        <v>11.534586894586894</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="6"/>
+        <v>258.95147578347576</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="6">
+        <v>22407</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="2"/>
+        <v>12.767521367521368</v>
+      </c>
+      <c r="F51" s="4">
+        <v>227.5</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="3"/>
+        <v>2904.6111111111113</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="4"/>
+        <v>180.08588888888889</v>
+      </c>
+      <c r="I51" s="4">
+        <f t="shared" si="5"/>
+        <v>116.18444444444445</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" si="6"/>
+        <v>2608.3407777777779</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G52" s="11">
+        <f>SUM(G48:G51)</f>
+        <v>5397.6062678062681</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11">
+        <f>SUM(J48:J51)</f>
+        <v>4847.0504284900289</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clemente\Desktop\sensors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0242D2-25D6-439E-A928-65B1CE902F7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10BAE97-3F7E-46E5-BE7C-9564CBDA360B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4755" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{A3141BC4-0F40-4285-8D7F-57D1327E0480}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Descripción</t>
   </si>
@@ -132,20 +132,14 @@
     <t>Jefe de Proyecto</t>
   </si>
   <si>
-    <t>Programador</t>
-  </si>
-  <si>
-    <t>Encargado de pruebas</t>
-  </si>
-  <si>
-    <t>Documentador</t>
+    <t>Desarrollador</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +153,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -233,11 +233,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -253,6 +281,9 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -265,7 +296,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1704,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C066D9B-284C-4B0C-B62A-F2D60AC48E2F}">
   <dimension ref="B3:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="E39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,44 +2135,44 @@
     </row>
     <row r="45" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I46" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="3:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+    <row r="47" spans="3:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
       <c r="H47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="10"/>
-      <c r="J47" s="8"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48" spans="3:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="5" t="s">
@@ -2175,115 +2209,72 @@
       <c r="C49" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="6">
-        <v>16189</v>
-      </c>
-      <c r="E49" s="4">
-        <f t="shared" ref="E49:E51" si="2">D49/1755</f>
-        <v>9.2245014245014243</v>
+      <c r="D49" s="12">
+        <v>25304</v>
+      </c>
+      <c r="E49" s="13">
+        <v>14.418233600000001</v>
       </c>
       <c r="F49" s="4">
-        <v>80.5</v>
+        <v>328</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" ref="G49:G51" si="3">E49*F49</f>
-        <v>742.57236467236464</v>
+        <f>E49*F49</f>
+        <v>4729.1806207999998</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" ref="H49:H52" si="4">G49*0.062</f>
-        <v>46.039486609686605</v>
+        <f>G49*0.062</f>
+        <v>293.2091984896</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" ref="I49:I52" si="5">G49*0.04</f>
-        <v>29.702894586894587</v>
+        <f>G49*0.04</f>
+        <v>189.16722483199999</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" ref="J49:J51" si="6">G49-H49-I49</f>
-        <v>666.82998347578348</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="6">
-        <v>25304</v>
-      </c>
-      <c r="E50" s="4">
-        <f t="shared" si="2"/>
-        <v>14.418233618233618</v>
-      </c>
-      <c r="F50" s="4">
-        <v>20</v>
-      </c>
-      <c r="G50" s="4">
-        <f t="shared" si="3"/>
-        <v>288.36467236467234</v>
-      </c>
-      <c r="H50" s="4">
-        <f t="shared" si="4"/>
-        <v>17.878609686609686</v>
-      </c>
-      <c r="I50" s="4">
-        <f t="shared" si="5"/>
-        <v>11.534586894586894</v>
-      </c>
-      <c r="J50" s="4">
-        <f t="shared" si="6"/>
-        <v>258.95147578347576</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="6">
-        <v>22407</v>
-      </c>
-      <c r="E51" s="4">
-        <f t="shared" si="2"/>
-        <v>12.767521367521368</v>
-      </c>
-      <c r="F51" s="4">
-        <v>227.5</v>
-      </c>
-      <c r="G51" s="4">
-        <f t="shared" si="3"/>
-        <v>2904.6111111111113</v>
-      </c>
-      <c r="H51" s="4">
-        <f t="shared" si="4"/>
-        <v>180.08588888888889</v>
-      </c>
-      <c r="I51" s="4">
-        <f t="shared" si="5"/>
-        <v>116.18444444444445</v>
-      </c>
-      <c r="J51" s="4">
-        <f t="shared" si="6"/>
-        <v>2608.3407777777779</v>
-      </c>
+        <f>G49-H49-I49</f>
+        <v>4246.8041974784001</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G52" s="11">
+      <c r="G52" s="7">
         <f>SUM(G48:G51)</f>
-        <v>5397.6062678062681</v>
-      </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11">
+        <v>6191.2387404581195</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7">
         <f>SUM(J48:J51)</f>
-        <v>4847.0504284900289</v>
+        <v>5559.7323889313911</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J46:J47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="F46:F47"/>
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
